--- a/Bilgisayar Ağları Ödev Listesi.xlsx
+++ b/Bilgisayar Ağları Ödev Listesi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buseyarentekin/Documents/github/BilgisayarAglari-BIL205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C356A5D-F872-5243-BCD5-5A0AC429FCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED2BF2-E0AF-6F4F-B29C-A79A162982E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>ÖĞRENCİ ADI</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Mert Erdal, Melih Can Aydın</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -936,6 +939,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1727,8 +1733,8 @@
   </sheetPr>
   <dimension ref="B1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1740,7 +1746,7 @@
     <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="1.6640625" customWidth="1"/>
     <col min="8" max="8" width="0.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -1851,9 +1857,8 @@
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F9" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
-        <v/>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G9" s="12"/>
     </row>
@@ -1869,9 +1874,8 @@
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F10" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
-        <v/>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G10" s="12"/>
     </row>
@@ -1884,9 +1888,8 @@
         <v>18</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="str">
-        <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
-        <v/>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="G11" s="12"/>
       <c r="I11" s="29">
@@ -1910,6 +1913,9 @@
         <v/>
       </c>
       <c r="G12" s="22"/>
+      <c r="I12" s="38">
+        <v>44889</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
@@ -1928,6 +1934,9 @@
         <v/>
       </c>
       <c r="G13" s="12"/>
+      <c r="I13" s="38">
+        <v>44896</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
@@ -1946,6 +1955,9 @@
         <v/>
       </c>
       <c r="G14" s="22"/>
+      <c r="I14" s="29">
+        <v>44903</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
@@ -1964,6 +1976,9 @@
         <v/>
       </c>
       <c r="G15" s="22"/>
+      <c r="I15" s="29">
+        <v>44903</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
@@ -1982,8 +1997,11 @@
         <v/>
       </c>
       <c r="G16" s="22"/>
+      <c r="I16" s="29">
+        <v>44910</v>
+      </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
       <c r="C17" s="20" t="s">
         <v>34</v>
@@ -2000,8 +2018,11 @@
         <v/>
       </c>
       <c r="G17" s="22"/>
+      <c r="I17" s="29">
+        <v>44910</v>
+      </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="20" t="s">
         <v>40</v>
@@ -2018,8 +2039,11 @@
         <v/>
       </c>
       <c r="G18" s="22"/>
+      <c r="I18" s="29">
+        <v>44917</v>
+      </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -2036,8 +2060,11 @@
         <v/>
       </c>
       <c r="G19" s="22"/>
+      <c r="I19" s="29">
+        <v>44917</v>
+      </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="2" t="s">
         <v>37</v>
@@ -2054,8 +2081,11 @@
         <v/>
       </c>
       <c r="G20" s="26"/>
+      <c r="I20" s="29">
+        <v>44924</v>
+      </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="C21" s="20"/>
       <c r="D21" s="28" t="s">
@@ -2070,8 +2100,11 @@
         <v/>
       </c>
       <c r="G21" s="22"/>
+      <c r="I21" s="29">
+        <v>44924</v>
+      </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:C3"/>

--- a/Bilgisayar Ağları Ödev Listesi.xlsx
+++ b/Bilgisayar Ağları Ödev Listesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buseyarentekin/Documents/github/BilgisayarAglari-BIL205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED2BF2-E0AF-6F4F-B29C-A79A162982E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B79740A-36D2-404C-89A7-DF3437A62EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sınıf Listesi" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,6 +583,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -825,7 +831,7 @@
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -898,9 +904,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -916,6 +919,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,8 +946,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1734,7 +1746,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I20"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1847,10 +1859,10 @@
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="str">
@@ -1864,10 +1876,10 @@
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="39" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3" t="str">
@@ -1881,10 +1893,10 @@
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="39" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3"/>
@@ -1892,16 +1904,16 @@
         <v>41</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>44882</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="21" t="str">
@@ -1913,16 +1925,16 @@
         <v/>
       </c>
       <c r="G12" s="22"/>
-      <c r="I12" s="38">
+      <c r="I12" s="29">
         <v>44889</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3" t="str">
@@ -1934,7 +1946,7 @@
         <v/>
       </c>
       <c r="G13" s="12"/>
-      <c r="I13" s="38">
+      <c r="I13" s="29">
         <v>44896</v>
       </c>
     </row>
@@ -1955,7 +1967,7 @@
         <v/>
       </c>
       <c r="G14" s="22"/>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>44903</v>
       </c>
     </row>
@@ -1964,7 +1976,7 @@
       <c r="C15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="21" t="str">
@@ -1976,8 +1988,8 @@
         <v/>
       </c>
       <c r="G15" s="22"/>
-      <c r="I15" s="29">
-        <v>44903</v>
+      <c r="I15" s="28">
+        <v>44910</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1985,7 +1997,7 @@
       <c r="C16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="21" t="str">
@@ -1997,7 +2009,7 @@
         <v/>
       </c>
       <c r="G16" s="22"/>
-      <c r="I16" s="29">
+      <c r="I16" s="28">
         <v>44910</v>
       </c>
     </row>
@@ -2006,7 +2018,7 @@
       <c r="C17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="21" t="str">
@@ -2018,7 +2030,7 @@
         <v/>
       </c>
       <c r="G17" s="22"/>
-      <c r="I17" s="29">
+      <c r="I17" s="28">
         <v>44910</v>
       </c>
     </row>
@@ -2027,7 +2039,7 @@
       <c r="C18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="21" t="str">
@@ -2039,7 +2051,7 @@
         <v/>
       </c>
       <c r="G18" s="22"/>
-      <c r="I18" s="29">
+      <c r="I18" s="28">
         <v>44917</v>
       </c>
     </row>
@@ -2048,7 +2060,7 @@
       <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="21" t="str">
@@ -2060,7 +2072,7 @@
         <v/>
       </c>
       <c r="G19" s="22"/>
-      <c r="I19" s="29">
+      <c r="I19" s="28">
         <v>44917</v>
       </c>
     </row>
@@ -2072,23 +2084,23 @@
       <c r="D20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="24" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F20" s="25" t="str">
+      <c r="F20" s="24" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G20" s="26"/>
-      <c r="I20" s="29">
+      <c r="G20" s="25"/>
+      <c r="I20" s="28">
         <v>44924</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="21" t="str">
@@ -2100,9 +2112,7 @@
         <v/>
       </c>
       <c r="G21" s="22"/>
-      <c r="I21" s="29">
-        <v>44924</v>
-      </c>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>

--- a/Bilgisayar Ağları Ödev Listesi.xlsx
+++ b/Bilgisayar Ağları Ödev Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buseyarentekin/Documents/github/BilgisayarAglari-BIL205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B79740A-36D2-404C-89A7-DF3437A62EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B09A452-F92C-0542-8F71-FB49C45115E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,6 +922,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -945,15 +954,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1746,7 +1746,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C19" sqref="C19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1764,27 +1764,27 @@
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="10"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9"/>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="str">
@@ -1876,10 +1876,10 @@
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="31" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3" t="str">
@@ -1893,10 +1893,10 @@
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="31" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3"/>
@@ -1910,10 +1910,10 @@
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="21" t="str">
@@ -1931,10 +1931,10 @@
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="10"/>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="3" t="str">

--- a/Bilgisayar Ağları Ödev Listesi.xlsx
+++ b/Bilgisayar Ağları Ödev Listesi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buseyarentekin/Documents/github/BilgisayarAglari-BIL205/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B09A452-F92C-0542-8F71-FB49C45115E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAF69EC-F356-A043-91CE-DFDFA13F9A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>ÖĞRENCİ ADI</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Uygulama Katmanı</t>
-  </si>
-  <si>
-    <t>Soket Programlama </t>
   </si>
   <si>
     <t>Mert Mavi</t>
@@ -831,17 +828,14 @@
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -850,14 +844,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -868,61 +859,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -934,7 +916,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -952,8 +934,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1746,7 +1731,7 @@
   <dimension ref="B1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:I19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1763,356 +1748,350 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="4"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="35" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>44854</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>44926</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <f>COUNTA(Öğrenci_Listesi[ÖĞRENCİ ADI])</f>
         <v>12</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
-      <c r="C9" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="2" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
-      <c r="C10" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="2" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="12"/>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="I11" s="28">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="I11" s="23">
         <v>44882</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
-      <c r="C12" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="31" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="F12" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G12" s="22"/>
-      <c r="I12" s="29">
+      <c r="G12" s="18"/>
+      <c r="I12" s="24">
         <v>44889</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
-      <c r="C13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="31" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="2" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="2" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G13" s="12"/>
-      <c r="I13" s="29">
+      <c r="G13" s="9"/>
+      <c r="I13" s="24">
         <v>44896</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="10"/>
-      <c r="C14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="21" t="str">
+      <c r="E14" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F14" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G14" s="22"/>
-      <c r="I14" s="28">
+      <c r="G14" s="18"/>
+      <c r="I14" s="23">
         <v>44903</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
-      <c r="C15" s="20" t="s">
-        <v>33</v>
+      <c r="B15" s="8"/>
+      <c r="C15" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G15" s="22"/>
-      <c r="I15" s="28">
+      <c r="G15" s="18"/>
+      <c r="I15" s="23">
         <v>44910</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
-      <c r="C16" s="20" t="s">
-        <v>31</v>
+      <c r="B16" s="8"/>
+      <c r="C16" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G16" s="22"/>
-      <c r="I16" s="28">
-        <v>44910</v>
+      <c r="G16" s="18"/>
+      <c r="I16" s="23">
+        <v>44917</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
-      <c r="C17" s="20" t="s">
-        <v>34</v>
+      <c r="B17" s="8"/>
+      <c r="C17" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="21" t="str">
+        <v>37</v>
+      </c>
+      <c r="E17" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F17" s="21" t="str">
+      <c r="F17" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G17" s="22"/>
-      <c r="I17" s="28">
+      <c r="G17" s="18"/>
+      <c r="I17" s="23">
         <v>44910</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="10"/>
-      <c r="C18" s="20" t="s">
-        <v>40</v>
+      <c r="B18" s="8"/>
+      <c r="C18" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F18" s="21" t="str">
+      <c r="F18" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G18" s="22"/>
-      <c r="I18" s="28">
+      <c r="G18" s="18"/>
+      <c r="I18" s="23">
         <v>44917</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="21" t="str">
+      <c r="B19" s="8"/>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F19" s="21" t="str">
+      <c r="F19" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G19" s="22"/>
-      <c r="I19" s="28">
+      <c r="G19" s="18"/>
+      <c r="I19" s="23">
         <v>44917</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="24" t="str">
+      <c r="D20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="20" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="F20" s="20" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G20" s="25"/>
-      <c r="I20" s="28">
+      <c r="G20" s="21"/>
+      <c r="I20" s="23">
         <v>44924</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="21" t="str">
+      <c r="B21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,3),"")</f>
         <v/>
       </c>
-      <c r="F21" s="21" t="str">
+      <c r="F21" s="17" t="str">
         <f>IFERROR(VLOOKUP(Öğrenci_Listesi[[#This Row],[ÖĞRENCİ ADI]],#REF!,4),"")</f>
         <v/>
       </c>
-      <c r="G21" s="22"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="18"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" spans="2:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
